--- a/svr/svr-healthy-house/src/site/resources/健康小屋-设施列表导入模板.xlsx
+++ b/svr/svr-healthy-house/src/site/resources/健康小屋-设施列表导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="163">
   <si>
     <t>设施类型名称</t>
   </si>
@@ -460,6 +460,62 @@
   </si>
   <si>
     <t>健康餐厅</t>
+  </si>
+  <si>
+    <t>设施名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康小屋1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康小屋2</t>
+  </si>
+  <si>
+    <t>健康小屋3</t>
+  </si>
+  <si>
+    <t>健康小屋4</t>
+  </si>
+  <si>
+    <t>健康小屋5</t>
+  </si>
+  <si>
+    <t>健康小屋6</t>
+  </si>
+  <si>
+    <t>健康小屋7</t>
+  </si>
+  <si>
+    <t>健康小屋8</t>
+  </si>
+  <si>
+    <t>健康小屋9</t>
+  </si>
+  <si>
+    <t>健康小屋10</t>
+  </si>
+  <si>
+    <t>健康小屋11</t>
+  </si>
+  <si>
+    <t>健康小屋12</t>
+  </si>
+  <si>
+    <t>健康小屋13</t>
+  </si>
+  <si>
+    <t>健康小屋14</t>
+  </si>
+  <si>
+    <t>健康小屋15</t>
+  </si>
+  <si>
+    <t>健康小屋16</t>
+  </si>
+  <si>
+    <t>健康小屋17</t>
   </si>
 </sst>
 </file>
@@ -817,815 +873,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>136</v>
       </c>
     </row>
